--- a/DOCs/BurnDownTeam2Wk3Sprint2.xlsx
+++ b/DOCs/BurnDownTeam2Wk3Sprint2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDBA3E71-EFB0-4ABE-B239-529478C57BB5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C233EB-730D-4988-9D3C-FC7E13270832}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36531" yWindow="1303" windowWidth="24686" windowHeight="13148" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="2640" windowWidth="24686" windowHeight="13149" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -360,7 +360,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>BURN DOWN CHART      6733 Team2 Sprint1</a:t>
+              <a:t>BURN DOWN CHART      6733 Team2 Sprint2</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -536,76 +536,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>31</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>28</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>28</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>28</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>28</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>28</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>28</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>28</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>28</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>28</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>28</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>28</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>28</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>28</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>28</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>28</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -731,61 +731,61 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>31</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.571428571428569</c:v>
+                  <c:v>38.571428571428569</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.095238095238095</c:v>
+                  <c:v>36.428571428571431</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23.61904761904762</c:v>
+                  <c:v>34.285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.142857142857142</c:v>
+                  <c:v>32.142857142857139</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.666666666666664</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19.19047619047619</c:v>
+                  <c:v>27.857142857142858</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17.714285714285715</c:v>
+                  <c:v>25.714285714285715</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16.238095238095237</c:v>
+                  <c:v>23.571428571428573</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14.761904761904759</c:v>
+                  <c:v>21.428571428571431</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.285714285714285</c:v>
+                  <c:v>19.285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.80952380952381</c:v>
+                  <c:v>17.142857142857142</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10.333333333333332</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.8571428571428541</c:v>
+                  <c:v>12.857142857142861</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.3809523809523796</c:v>
+                  <c:v>10.714285714285715</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.9047619047619051</c:v>
+                  <c:v>8.5714285714285694</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.428571428571427</c:v>
+                  <c:v>6.4285714285714306</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.952380952380949</c:v>
+                  <c:v>4.2857142857142847</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.4761904761904745</c:v>
+                  <c:v>2.1428571428571459</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0</c:v>
@@ -3473,7 +3473,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3514,16 +3514,16 @@
         <v>43549</v>
       </c>
       <c r="C2" s="3">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="1">
         <f>C2-D2</f>
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="F2" s="4">
         <f>$C$2</f>
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
@@ -3537,11 +3537,11 @@
       <c r="D3" s="3"/>
       <c r="E3" s="1">
         <f t="shared" ref="E3:E7" si="0">(E2+C3)-D3</f>
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="F3" s="4">
         <f t="shared" ref="F3:F21" si="1">$C$2-(($C$2/21)*(A2+2))</f>
-        <v>26.571428571428569</v>
+        <v>38.571428571428569</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
@@ -3555,11 +3555,11 @@
       <c r="D4" s="3"/>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="F4" s="4">
         <f t="shared" si="1"/>
-        <v>25.095238095238095</v>
+        <v>36.428571428571431</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
@@ -3573,11 +3573,11 @@
       <c r="D5" s="3"/>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="F5" s="4">
         <f t="shared" si="1"/>
-        <v>23.61904761904762</v>
+        <v>34.285714285714285</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
@@ -3591,11 +3591,11 @@
       <c r="D6" s="3"/>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="F6" s="4">
         <f t="shared" si="1"/>
-        <v>22.142857142857142</v>
+        <v>32.142857142857139</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
@@ -3611,11 +3611,11 @@
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" si="1"/>
-        <v>20.666666666666664</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
@@ -3629,11 +3629,11 @@
       <c r="D8" s="3"/>
       <c r="E8" s="1">
         <f t="shared" ref="E8:E25" si="2">(E7+C8)-D8</f>
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" si="1"/>
-        <v>19.19047619047619</v>
+        <v>27.857142857142858</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
@@ -3647,11 +3647,11 @@
       <c r="D9" s="3"/>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" si="1"/>
-        <v>17.714285714285715</v>
+        <v>25.714285714285715</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
@@ -3667,11 +3667,11 @@
       </c>
       <c r="E10" s="1">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="F10" s="4">
         <f t="shared" si="1"/>
-        <v>16.238095238095237</v>
+        <v>23.571428571428573</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
@@ -3685,11 +3685,11 @@
       <c r="D11" s="3"/>
       <c r="E11" s="1">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="F11" s="4">
         <f t="shared" si="1"/>
-        <v>14.761904761904759</v>
+        <v>21.428571428571431</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
@@ -3703,11 +3703,11 @@
       <c r="D12" s="3"/>
       <c r="E12" s="1">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="1"/>
-        <v>13.285714285714285</v>
+        <v>19.285714285714285</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
@@ -3721,11 +3721,11 @@
       <c r="D13" s="3"/>
       <c r="E13" s="1">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" si="1"/>
-        <v>11.80952380952381</v>
+        <v>17.142857142857142</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
@@ -3739,11 +3739,11 @@
       <c r="D14" s="3"/>
       <c r="E14" s="1">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="F14" s="4">
         <f t="shared" si="1"/>
-        <v>10.333333333333332</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
@@ -3753,15 +3753,19 @@
       <c r="B15" s="2">
         <v>43562</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
       <c r="E15" s="1">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="F15" s="4">
         <f t="shared" si="1"/>
-        <v>8.8571428571428541</v>
+        <v>12.857142857142861</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
@@ -3775,11 +3779,11 @@
       <c r="D16" s="3"/>
       <c r="E16" s="1">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="F16" s="4">
         <f t="shared" si="1"/>
-        <v>7.3809523809523796</v>
+        <v>10.714285714285715</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
@@ -3790,14 +3794,16 @@
         <v>43564</v>
       </c>
       <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="D17" s="3">
+        <v>8</v>
+      </c>
       <c r="E17" s="1">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F17" s="4">
         <f t="shared" si="1"/>
-        <v>5.9047619047619051</v>
+        <v>8.5714285714285694</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
@@ -3811,11 +3817,11 @@
       <c r="D18" s="3"/>
       <c r="E18" s="1">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F18" s="4">
         <f t="shared" si="1"/>
-        <v>4.428571428571427</v>
+        <v>6.4285714285714306</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
@@ -3825,15 +3831,19 @@
       <c r="B19" s="2">
         <v>43566</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="C19" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D19" s="3">
+        <v>8</v>
+      </c>
       <c r="E19" s="1">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F19" s="4">
         <f t="shared" si="1"/>
-        <v>2.952380952380949</v>
+        <v>4.2857142857142847</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
@@ -3844,14 +3854,16 @@
         <v>43567</v>
       </c>
       <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="D20" s="3">
+        <v>14</v>
+      </c>
       <c r="E20" s="1">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F20" s="4">
         <f t="shared" si="1"/>
-        <v>1.4761904761904745</v>
+        <v>2.1428571428571459</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
@@ -3862,10 +3874,12 @@
         <v>43568</v>
       </c>
       <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="D21" s="3">
+        <v>6</v>
+      </c>
       <c r="E21" s="1">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="F21" s="4">
         <f t="shared" si="1"/>
@@ -3880,10 +3894,12 @@
         <v>43569</v>
       </c>
       <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="D22" s="3">
+        <v>5</v>
+      </c>
       <c r="E22" s="1">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F22" s="4">
         <v>0</v>
@@ -3900,7 +3916,7 @@
       <c r="D23" s="3"/>
       <c r="E23" s="1">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F23" s="4">
         <v>0</v>
@@ -3917,7 +3933,7 @@
       <c r="D24" s="3"/>
       <c r="E24" s="1">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F24" s="4">
         <f t="shared" ref="F24" si="3">$C$2-(($C$2/24)*(A23+2))</f>
@@ -3935,7 +3951,7 @@
       <c r="D25" s="3"/>
       <c r="E25" s="1">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F25" s="4">
         <f>$C$2-(($C$2/24)*(A24+1))</f>
@@ -3945,11 +3961,11 @@
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C26" s="1">
         <f>SUM(C2:C25)</f>
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="D26" s="1">
         <f>SUM(D2:D25)</f>
-        <v>3</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
